--- a/Klinisk/Projektpatienter090919.xlsx
+++ b/Klinisk/Projektpatienter090919.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F331C-07E6-E444-9125-701DBDF4EC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23EBA2-BE11-FF47-9545-0DBECBE1543C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{6DCDD806-7CCD-6945-972D-FFC9B3EB27F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{6DCDD806-7CCD-6945-972D-FFC9B3EB27F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Mulige patienter" sheetId="1" r:id="rId1"/>
@@ -4057,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAE9B14-1559-374F-BFF2-97B5DA1CE5FA}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
